--- a/processor401_stats/401_data.xlsx
+++ b/processor401_stats/401_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armanhoque/Desktop/Spring2021/Cse 490/CSE490_Project_2/processor401_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B528BBCA-5668-AC43-B514-185B480A7E83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304D6934-01B8-1648-A8B6-F9FD8EAB7E21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="15500" windowHeight="15500" xr2:uid="{347E9503-019D-A649-B61D-E7A01B742335}"/>
   </bookViews>
@@ -347,6 +347,6401 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>L1D vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> CPI</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.5488146999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.53517462</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.52375064</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5107285799999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.48342584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30C5-0F4D-8BEC-00CCFB02036C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1228503615"/>
+        <c:axId val="1296174767"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1228503615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1296174767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1296174767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1228503615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>L1I</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs CPI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$28:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.5488146999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.54874504</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5487182800000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.54871632</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5487104199999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1620-1D43-BF65-B83C3682C5D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1287575663"/>
+        <c:axId val="1287500687"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1287575663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1287500687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1287500687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1287575663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>L2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs CPI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$53:$F$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.5820517000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5488146999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5166572</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4739952000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4125612000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5675-F244-81B8-79DFDFF7AEC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1286430607"/>
+        <c:axId val="1225901423"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1286430607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225901423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1225901423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1286430607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>L1D</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>_Assoc vs CPI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$78:$F$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.5488146999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.53705242</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5308160399999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.52759066</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5257383799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-633C-3744-9F68-C2706BFEFA9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1295745087"/>
+        <c:axId val="1308283615"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1295745087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1308283615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1308283615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1295745087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>L1I_Assoc</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs CPI</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$103:$F$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.5488146999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.54877928</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.54877642</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5487636999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5487606999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DD7-B649-A69A-34F4914A5F03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1297038079"/>
+        <c:axId val="1294388511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1297038079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1294388511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1294388511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1297038079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>L2_Assoc vs CPI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$128:$F$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.5488147000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5345232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5330012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5321717000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5320892000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A731-3C46-90BE-CD177A7D931F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1307862143"/>
+        <c:axId val="1299726143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1307862143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1299726143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1299726143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1307862143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Block Size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs CPI</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$153:$F$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.5488146999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3606364399999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2749397199999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2469048599999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2548360599999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8986-494C-B0BD-EF9E314B0548}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1321888223"/>
+        <c:axId val="1322238783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1321888223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1322238783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1322238783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1321888223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A873183B-0AF2-864D-8F66-BD7960406C5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A47AA6C-C5C7-434C-821B-7C4850AD5B01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3F8B82-77CB-D54B-B7E4-4FAAAF037FC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954FB0C3-6447-E24E-A822-37FD96103EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2BC2D9-18BB-A943-B371-327FDEA569EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13318BDB-49CB-1143-A4D5-CE624C597EBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B7EC17-AEB4-3D45-B539-80027AA8B722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -648,8 +7043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA16ED48-C0EE-4B4D-933A-76E0BC792412}">
   <dimension ref="A2:F175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="F173" sqref="F173"/>
+    <sheetView tabSelected="1" topLeftCell="D113" workbookViewId="0">
+      <selection activeCell="N127" sqref="N127:N131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,7 +7098,7 @@
         <v>1534849</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8" si="0">1+(((D9+D8)*6+D10*50)/100000000)</f>
+        <f>1+(((D9+D8)*6+D10*50)/100000000)</f>
         <v>1.53517462</v>
       </c>
     </row>
@@ -736,7 +7131,7 @@
         <v>1373866</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13" si="1">1+(((D14+D13)*6+D15*50)/100000000)</f>
+        <f>1+(((D14+D13)*6+D15*50)/100000000)</f>
         <v>1.52375064</v>
       </c>
     </row>
@@ -769,7 +7164,7 @@
         <v>1217915</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18" si="2">1+(((D19+D18)*6+D20*50)/100000000)</f>
+        <f>1+(((D19+D18)*6+D20*50)/100000000)</f>
         <v>1.5107285799999999</v>
       </c>
     </row>
@@ -834,7 +7229,7 @@
         <v>1740292</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28" si="3">1+(((D29+D28)*6+D30*50)/100000000)</f>
+        <f t="shared" ref="F28" si="0">1+(((D29+D28)*6+D30*50)/100000000)</f>
         <v>1.5488146999999999</v>
       </c>
     </row>
@@ -867,7 +7262,7 @@
         <v>1740292</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33" si="4">1+(((D34+D33)*6+D35*50)/100000000)</f>
+        <f t="shared" ref="F33" si="1">1+(((D34+D33)*6+D35*50)/100000000)</f>
         <v>1.54874504</v>
       </c>
     </row>
@@ -900,7 +7295,7 @@
         <v>1740292</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F38" si="5">1+(((D39+D38)*6+D40*50)/100000000)</f>
+        <f t="shared" ref="F38" si="2">1+(((D39+D38)*6+D40*50)/100000000)</f>
         <v>1.5487182800000001</v>
       </c>
     </row>
@@ -965,7 +7360,7 @@
         <v>1740292</v>
       </c>
       <c r="F48">
-        <f t="shared" ref="F48" si="6">1+(((D49+D48)*6+D50*50)/100000000)</f>
+        <f t="shared" ref="F48" si="3">1+(((D49+D48)*6+D50*50)/100000000)</f>
         <v>1.5487104199999999</v>
       </c>
     </row>
@@ -998,7 +7393,7 @@
         <v>1740292</v>
       </c>
       <c r="F53">
-        <f t="shared" ref="F53" si="7">1+(((D54+D53)*6+D55*50)/100000000)</f>
+        <f t="shared" ref="F53" si="4">1+(((D54+D53)*6+D55*50)/100000000)</f>
         <v>1.5820517000000001</v>
       </c>
     </row>
@@ -1031,7 +7426,7 @@
         <v>1740292</v>
       </c>
       <c r="F58">
-        <f t="shared" ref="F58" si="8">1+(((D59+D58)*6+D60*50)/100000000)</f>
+        <f t="shared" ref="F58" si="5">1+(((D59+D58)*6+D60*50)/100000000)</f>
         <v>1.5488146999999999</v>
       </c>
     </row>
@@ -1064,7 +7459,7 @@
         <v>1740292</v>
       </c>
       <c r="F63">
-        <f t="shared" ref="F63" si="9">1+(((D64+D63)*6+D65*50)/100000000)</f>
+        <f t="shared" ref="F63" si="6">1+(((D64+D63)*6+D65*50)/100000000)</f>
         <v>1.5166572</v>
       </c>
     </row>
@@ -1097,7 +7492,7 @@
         <v>1740292</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68" si="10">1+(((D69+D68)*6+D70*50)/100000000)</f>
+        <f t="shared" ref="F68" si="7">1+(((D69+D68)*6+D70*50)/100000000)</f>
         <v>1.4739952000000001</v>
       </c>
     </row>
@@ -1130,7 +7525,7 @@
         <v>1740292</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73" si="11">1+(((D74+D73)*6+D75*50)/100000000)</f>
+        <f t="shared" ref="F73" si="8">1+(((D74+D73)*6+D75*50)/100000000)</f>
         <v>1.4125612000000001</v>
       </c>
     </row>
@@ -1163,7 +7558,7 @@
         <v>1740292</v>
       </c>
       <c r="F78">
-        <f t="shared" ref="F78" si="12">1+(((D79+D78)*6+D80*50)/100000000)</f>
+        <f t="shared" ref="F78" si="9">1+(((D79+D78)*6+D80*50)/100000000)</f>
         <v>1.5488146999999999</v>
       </c>
     </row>
@@ -1196,7 +7591,7 @@
         <v>1556779</v>
       </c>
       <c r="F83">
-        <f t="shared" ref="F83" si="13">1+(((D84+D83)*6+D85*50)/100000000)</f>
+        <f t="shared" ref="F83" si="10">1+(((D84+D83)*6+D85*50)/100000000)</f>
         <v>1.53705242</v>
       </c>
     </row>
@@ -1229,7 +7624,7 @@
         <v>1458081</v>
       </c>
       <c r="F88">
-        <f t="shared" ref="F88" si="14">1+(((D89+D88)*6+D90*50)/100000000)</f>
+        <f t="shared" ref="F88" si="11">1+(((D89+D88)*6+D90*50)/100000000)</f>
         <v>1.5308160399999999</v>
       </c>
     </row>
@@ -1262,7 +7657,7 @@
         <v>1406983</v>
       </c>
       <c r="F93">
-        <f t="shared" ref="F93" si="15">1+(((D94+D93)*6+D95*50)/100000000)</f>
+        <f t="shared" ref="F93" si="12">1+(((D94+D93)*6+D95*50)/100000000)</f>
         <v>1.52759066</v>
       </c>
     </row>
@@ -1295,7 +7690,7 @@
         <v>1377595</v>
       </c>
       <c r="F98">
-        <f t="shared" ref="F98" si="16">1+(((D99+D98)*6+D100*50)/100000000)</f>
+        <f t="shared" ref="F98" si="13">1+(((D99+D98)*6+D100*50)/100000000)</f>
         <v>1.5257383799999999</v>
       </c>
     </row>
@@ -1328,7 +7723,7 @@
         <v>1740292</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="F103" si="17">1+(((D104+D103)*6+D105*50)/100000000)</f>
+        <f t="shared" ref="F103" si="14">1+(((D104+D103)*6+D105*50)/100000000)</f>
         <v>1.5488146999999999</v>
       </c>
     </row>
@@ -1361,7 +7756,7 @@
         <v>1740292</v>
       </c>
       <c r="F108">
-        <f t="shared" ref="F108" si="18">1+(((D109+D108)*6+D110*50)/100000000)</f>
+        <f t="shared" ref="F108" si="15">1+(((D109+D108)*6+D110*50)/100000000)</f>
         <v>1.54877928</v>
       </c>
     </row>
@@ -1394,7 +7789,7 @@
         <v>1740292</v>
       </c>
       <c r="F113">
-        <f t="shared" ref="F113" si="19">1+(((D114+D113)*6+D115*50)/100000000)</f>
+        <f t="shared" ref="F113" si="16">1+(((D114+D113)*6+D115*50)/100000000)</f>
         <v>1.54877642</v>
       </c>
     </row>
@@ -1427,7 +7822,7 @@
         <v>1740292</v>
       </c>
       <c r="F118">
-        <f t="shared" ref="F118" si="20">1+(((D119+D118)*6+D120*50)/100000000)</f>
+        <f t="shared" ref="F118" si="17">1+(((D119+D118)*6+D120*50)/100000000)</f>
         <v>1.5487636999999999</v>
       </c>
     </row>
@@ -1460,7 +7855,7 @@
         <v>1740292</v>
       </c>
       <c r="F123">
-        <f t="shared" ref="F123" si="21">1+(((D124+D123)*6+D125*50)/100000000)</f>
+        <f t="shared" ref="F123" si="18">1+(((D124+D123)*6+D125*50)/100000000)</f>
         <v>1.5487606999999999</v>
       </c>
     </row>
@@ -1525,7 +7920,7 @@
         <v>1740292</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133" si="22">1+(((D134+D133)*6+D135*50)/100000000)</f>
+        <f t="shared" ref="F133" si="19">1+(((D134+D133)*6+D135*50)/100000000)</f>
         <v>1.5345232</v>
       </c>
     </row>
@@ -1558,7 +7953,7 @@
         <v>1740292</v>
       </c>
       <c r="F138">
-        <f t="shared" ref="F138" si="23">1+(((D139+D138)*6+D140*50)/100000000)</f>
+        <f t="shared" ref="F138" si="20">1+(((D139+D138)*6+D140*50)/100000000)</f>
         <v>1.5330012</v>
       </c>
     </row>
@@ -1591,7 +7986,7 @@
         <v>1740292</v>
       </c>
       <c r="F143">
-        <f t="shared" ref="F143" si="24">1+(((D144+D143)*6+D145*50)/100000000)</f>
+        <f t="shared" ref="F143" si="21">1+(((D144+D143)*6+D145*50)/100000000)</f>
         <v>1.5321717000000001</v>
       </c>
     </row>
@@ -1624,7 +8019,7 @@
         <v>1740292</v>
       </c>
       <c r="F148">
-        <f t="shared" ref="F148" si="25">1+(((D149+D148)*6+D150*50)/100000000)</f>
+        <f t="shared" ref="F148" si="22">1+(((D149+D148)*6+D150*50)/100000000)</f>
         <v>1.5320892000000002</v>
       </c>
     </row>
@@ -1657,7 +8052,7 @@
         <v>1740292</v>
       </c>
       <c r="F153">
-        <f t="shared" ref="F153" si="26">1+(((D154+D153)*6+D155*50)/100000000)</f>
+        <f t="shared" ref="F153" si="23">1+(((D154+D153)*6+D155*50)/100000000)</f>
         <v>1.5488146999999999</v>
       </c>
     </row>
@@ -1690,7 +8085,7 @@
         <v>1493627</v>
       </c>
       <c r="F158">
-        <f t="shared" ref="F158" si="27">1+(((D159+D158)*6+D160*50)/100000000)</f>
+        <f t="shared" ref="F158" si="24">1+(((D159+D158)*6+D160*50)/100000000)</f>
         <v>1.3606364399999999</v>
       </c>
     </row>
@@ -1723,7 +8118,7 @@
         <v>1464665</v>
       </c>
       <c r="F163">
-        <f t="shared" ref="F163" si="28">1+(((D164+D163)*6+D165*50)/100000000)</f>
+        <f t="shared" ref="F163" si="25">1+(((D164+D163)*6+D165*50)/100000000)</f>
         <v>1.2749397199999999</v>
       </c>
     </row>
@@ -1756,7 +8151,7 @@
         <v>1556400</v>
       </c>
       <c r="F168">
-        <f t="shared" ref="F168" si="29">1+(((D169+D168)*6+D170*50)/100000000)</f>
+        <f t="shared" ref="F168" si="26">1+(((D169+D168)*6+D170*50)/100000000)</f>
         <v>1.2469048599999999</v>
       </c>
     </row>
@@ -1789,7 +8184,7 @@
         <v>1749400</v>
       </c>
       <c r="F173">
-        <f t="shared" ref="F173" si="30">1+(((D174+D173)*6+D175*50)/100000000)</f>
+        <f t="shared" ref="F173" si="27">1+(((D174+D173)*6+D175*50)/100000000)</f>
         <v>1.2548360599999999</v>
       </c>
     </row>
@@ -1811,5 +8206,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>